--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H2">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I2">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J2">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N2">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O2">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P2">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q2">
-        <v>13.21427041427389</v>
+        <v>0.5000926168311112</v>
       </c>
       <c r="R2">
-        <v>118.928433728465</v>
+        <v>4.50083355148</v>
       </c>
       <c r="S2">
-        <v>0.119168432246048</v>
+        <v>0.01088477787641258</v>
       </c>
       <c r="T2">
-        <v>0.1191684322460479</v>
+        <v>0.01088477787641258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H3">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I3">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J3">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.937095</v>
       </c>
       <c r="O3">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P3">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q3">
-        <v>0.3723647980516667</v>
+        <v>0.02013671384666667</v>
       </c>
       <c r="R3">
-        <v>3.351283182465</v>
+        <v>0.18123042462</v>
       </c>
       <c r="S3">
-        <v>0.003358046098368094</v>
+        <v>0.0004382861294188429</v>
       </c>
       <c r="T3">
-        <v>0.003358046098368093</v>
+        <v>0.0004382861294188429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.192082333333333</v>
+        <v>0.06446533333333333</v>
       </c>
       <c r="H4">
-        <v>3.576247</v>
+        <v>0.193396</v>
       </c>
       <c r="I4">
-        <v>0.2797939869571494</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="J4">
-        <v>0.2797939869571493</v>
+        <v>0.02693738696927793</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N4">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O4">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P4">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q4">
-        <v>17.43897563321955</v>
+        <v>0.7173878713462222</v>
       </c>
       <c r="R4">
-        <v>156.950780698976</v>
+        <v>6.456490842116001</v>
       </c>
       <c r="S4">
-        <v>0.1572675086127333</v>
+        <v>0.0156143229634465</v>
       </c>
       <c r="T4">
-        <v>0.1572675086127333</v>
+        <v>0.01561432296344651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.531285</v>
       </c>
       <c r="I5">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J5">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N5">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O5">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P5">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q5">
-        <v>20.43815646078611</v>
+        <v>14.30306102550556</v>
       </c>
       <c r="R5">
-        <v>183.943408147075</v>
+        <v>128.72754922955</v>
       </c>
       <c r="S5">
-        <v>0.1843146073959884</v>
+        <v>0.3113136186691181</v>
       </c>
       <c r="T5">
-        <v>0.1843146073959884</v>
+        <v>0.3113136186691181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.531285</v>
       </c>
       <c r="I6">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J6">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.937095</v>
       </c>
       <c r="O6">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P6">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q6">
         <v>0.5759266130083334</v>
@@ -818,10 +818,10 @@
         <v>5.183339517075001</v>
       </c>
       <c r="S6">
-        <v>0.005193799537115854</v>
+        <v>0.01253534454364364</v>
       </c>
       <c r="T6">
-        <v>0.005193799537115854</v>
+        <v>0.01253534454364364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.531285</v>
       </c>
       <c r="I7">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="J7">
-        <v>0.4327498305196134</v>
+        <v>0.7704314695358874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N7">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O7">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P7">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q7">
-        <v>26.97239433836444</v>
+        <v>20.51788440277611</v>
       </c>
       <c r="R7">
-        <v>242.75154904528</v>
+        <v>184.660959624985</v>
       </c>
       <c r="S7">
-        <v>0.2432414235865092</v>
+        <v>0.4465825063231256</v>
       </c>
       <c r="T7">
-        <v>0.2432414235865091</v>
+        <v>0.4465825063231257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H8">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I8">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J8">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N8">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O8">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P8">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q8">
-        <v>13.57614496804278</v>
+        <v>3.761847387698889</v>
       </c>
       <c r="R8">
-        <v>122.185304712385</v>
+        <v>33.85662648929</v>
       </c>
       <c r="S8">
-        <v>0.1224318756213095</v>
+        <v>0.08187857977094209</v>
       </c>
       <c r="T8">
-        <v>0.1224318756213095</v>
+        <v>0.08187857977094209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H9">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I9">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J9">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.937095</v>
       </c>
       <c r="O9">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P9">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q9">
-        <v>0.3825620575983333</v>
+        <v>0.1514744305983333</v>
       </c>
       <c r="R9">
-        <v>3.443058518385</v>
+        <v>1.363269875385</v>
       </c>
       <c r="S9">
-        <v>0.003450006637640067</v>
+        <v>0.003296920361405264</v>
       </c>
       <c r="T9">
-        <v>0.003450006637640067</v>
+        <v>0.003296920361405264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.224727666666667</v>
+        <v>0.4849276666666666</v>
       </c>
       <c r="H10">
-        <v>3.674183</v>
+        <v>1.454783</v>
       </c>
       <c r="I10">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="J10">
-        <v>0.2874561825232373</v>
+        <v>0.2026311434948347</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N10">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O10">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P10">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q10">
-        <v>17.91654430160711</v>
+        <v>5.396407783204777</v>
       </c>
       <c r="R10">
-        <v>161.248898714464</v>
+        <v>48.567670048843</v>
       </c>
       <c r="S10">
-        <v>0.1615743002642878</v>
+        <v>0.1174556433624873</v>
       </c>
       <c r="T10">
-        <v>0.1615743002642878</v>
+        <v>0.1174556433624873</v>
       </c>
     </row>
   </sheetData>
